--- a/Arquivos/analytics.xlsx
+++ b/Arquivos/analytics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Coca-cola</t>
   </si>
@@ -80,22 +80,28 @@
     <t>CHEIO</t>
   </si>
   <si>
-    <t>100% ~ 76%</t>
-  </si>
-  <si>
-    <t>75% ~ 51%</t>
-  </si>
-  <si>
-    <t>50% ~ 26%</t>
-  </si>
-  <si>
-    <t>25% ~ 1%</t>
+    <t>&lt; = 25%</t>
+  </si>
+  <si>
+    <t>&lt;= 10%</t>
+  </si>
+  <si>
+    <t>&gt;=27 &amp;&amp;&lt; =66</t>
+  </si>
+  <si>
+    <t>&gt;=80</t>
+  </si>
+  <si>
+    <t>&gt;=70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -217,9 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +236,10 @@
     <xf numFmtId="9" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +542,7 @@
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,7 +1017,6 @@
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
@@ -1020,10 +1027,10 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1031,34 +1038,34 @@
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <f>_xlfn.QUARTILE.EXC(B2:B13,1)</f>
         <v>35</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <f t="shared" ref="C25:G25" si="5">_xlfn.QUARTILE.EXC(C2:C13,1)</f>
         <v>27.5</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <f t="shared" si="5"/>
         <v>21.25</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="12" t="s">
+      <c r="H25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1066,34 +1073,34 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="16">
         <f>AVERAGE(B2:B13)</f>
         <v>65.166666666666671</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="16">
         <f t="shared" ref="C26:G26" si="6">AVERAGE(C2:C13)</f>
         <v>56.25</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="16">
         <f t="shared" si="6"/>
         <v>46.25</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="16">
         <f t="shared" si="6"/>
         <v>47.416666666666664</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="16">
         <f t="shared" si="6"/>
         <v>62.916666666666664</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="16">
         <f t="shared" si="6"/>
         <v>37.916666666666664</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1125,8 +1132,8 @@
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1157,7 +1164,7 @@
         <v>51.25</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>16</v>
@@ -1192,7 +1199,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>17</v>
